--- a/excel/表单2处理.xlsx
+++ b/excel/表单2处理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G\exercise\github\2022_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C159A8-9A77-4B87-90DC-506132ABF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20152C5-36BE-40C2-83C4-9CF8028160B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">表单1!$A$1:$E$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表单2!$A$1:$Q$70</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="173">
   <si>
     <t>表面风化</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1676,6 +1686,10 @@
   <si>
     <t>无风化</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3565,11 +3579,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3593,7 @@
     <col min="18" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>142</v>
       </c>
@@ -3631,8 +3645,11 @@
       <c r="Q1" s="22" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R1" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>143</v>
       </c>
@@ -3674,8 +3691,12 @@
       <c r="Q2" s="10">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R2" s="10">
+        <f>SUM(D2:Q2)</f>
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>95</v>
       </c>
@@ -3719,8 +3740,12 @@
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R3" s="10">
+        <f>SUM(D3:Q3)</f>
+        <v>99.889999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -3758,8 +3783,12 @@
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R4" s="10">
+        <f t="shared" ref="R4:R67" si="0">SUM(D4:Q4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -3805,8 +3834,12 @@
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R5" s="10">
+        <f t="shared" si="0"/>
+        <v>98.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -3848,8 +3881,12 @@
       <c r="Q6" s="10">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R6" s="10">
+        <f t="shared" si="0"/>
+        <v>96.060000000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -3893,8 +3930,12 @@
       <c r="Q7" s="10">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R7" s="10">
+        <f t="shared" si="0"/>
+        <v>96.509999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -3938,8 +3979,12 @@
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R8" s="10">
+        <f t="shared" si="0"/>
+        <v>98.92000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -3985,8 +4030,12 @@
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R9" s="10">
+        <f t="shared" si="0"/>
+        <v>98.840000000000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -4022,8 +4071,12 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R10" s="10">
+        <f t="shared" si="0"/>
+        <v>99.699999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>92</v>
       </c>
@@ -4065,8 +4118,12 @@
       <c r="Q11" s="10">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R11" s="10">
+        <f t="shared" si="0"/>
+        <v>99.820000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>148</v>
       </c>
@@ -4108,8 +4165,12 @@
       <c r="Q12" s="10">
         <v>15.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R12" s="10">
+        <f t="shared" si="0"/>
+        <v>98.240000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -4147,8 +4208,12 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R13" s="10">
+        <f t="shared" si="0"/>
+        <v>99.769999999999982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -4184,8 +4249,12 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R14" s="10">
+        <f t="shared" si="0"/>
+        <v>99.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>96</v>
       </c>
@@ -4229,8 +4298,12 @@
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R15" s="10">
+        <f t="shared" si="0"/>
+        <v>95.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
@@ -4268,8 +4341,12 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R16" s="10">
+        <f t="shared" si="0"/>
+        <v>99.570000000000022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>75</v>
       </c>
@@ -4309,8 +4386,12 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R17" s="10">
+        <f t="shared" si="0"/>
+        <v>98.139999999999986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -4354,8 +4435,12 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R18" s="10">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -4399,8 +4484,12 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R19" s="10">
+        <f t="shared" si="0"/>
+        <v>79.470000000000013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
@@ -4446,8 +4535,12 @@
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="12"/>
-    </row>
-    <row r="21" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R20" s="10">
+        <f t="shared" si="0"/>
+        <v>98.409999999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
@@ -4491,8 +4584,12 @@
         <v>0</v>
       </c>
       <c r="Q21" s="12"/>
-    </row>
-    <row r="22" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R21" s="10">
+        <f t="shared" si="0"/>
+        <v>71.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -4530,8 +4627,12 @@
         <v>2.36</v>
       </c>
       <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R22" s="10">
+        <f t="shared" si="0"/>
+        <v>97.249999999999986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
@@ -4575,8 +4676,12 @@
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R23" s="10">
+        <f t="shared" si="0"/>
+        <v>98.759999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
@@ -4616,8 +4721,12 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R24" s="10">
+        <f t="shared" si="0"/>
+        <v>88.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
@@ -4659,8 +4768,12 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R25" s="10">
+        <f t="shared" si="0"/>
+        <v>98.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
@@ -4700,8 +4813,12 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R26" s="10">
+        <f t="shared" si="0"/>
+        <v>99.999999999999972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>98</v>
       </c>
@@ -4743,8 +4860,12 @@
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="12"/>
-    </row>
-    <row r="28" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R27" s="10">
+        <f t="shared" si="0"/>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -4784,8 +4905,12 @@
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R28" s="10">
+        <f t="shared" si="0"/>
+        <v>98.88000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -4829,8 +4954,12 @@
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R29" s="10">
+        <f t="shared" si="0"/>
+        <v>97.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>141</v>
       </c>
@@ -4872,8 +5001,12 @@
       <c r="Q30" s="10">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R30" s="10">
+        <f t="shared" si="0"/>
+        <v>99.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>147</v>
       </c>
@@ -4917,8 +5050,12 @@
       <c r="Q31" s="10">
         <v>15.95</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R31" s="10">
+        <f t="shared" si="0"/>
+        <v>99.890000000000015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>76</v>
       </c>
@@ -4956,8 +5093,12 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R32" s="10">
+        <f t="shared" si="0"/>
+        <v>98.810000000000016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>169</v>
       </c>
@@ -5005,8 +5146,12 @@
         <v>0.23</v>
       </c>
       <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R33" s="10">
+        <f t="shared" si="0"/>
+        <v>98.690000000000026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>83</v>
       </c>
@@ -5054,8 +5199,12 @@
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R34" s="10">
+        <f t="shared" si="0"/>
+        <v>99.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
@@ -5099,8 +5248,12 @@
         <v>0.4</v>
       </c>
       <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R35" s="10">
+        <f t="shared" si="0"/>
+        <v>97.949999999999989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>78</v>
       </c>
@@ -5144,8 +5297,12 @@
         <v>0.44</v>
       </c>
       <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R36" s="10">
+        <f t="shared" si="0"/>
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>97</v>
       </c>
@@ -5189,8 +5346,12 @@
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R37" s="10">
+        <f t="shared" si="0"/>
+        <v>98.429999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
@@ -5232,8 +5393,12 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="12"/>
-    </row>
-    <row r="39" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R38" s="10">
+        <f t="shared" si="0"/>
+        <v>98.659999999999982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>18</v>
       </c>
@@ -5275,8 +5440,12 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="12"/>
-    </row>
-    <row r="40" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R39" s="10">
+        <f t="shared" si="0"/>
+        <v>99.96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>19</v>
       </c>
@@ -5320,8 +5489,12 @@
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="1:17" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R40" s="10">
+        <f t="shared" si="0"/>
+        <v>97.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>53</v>
       </c>
@@ -5361,8 +5534,12 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R41" s="10">
+        <f t="shared" si="0"/>
+        <v>96.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>54</v>
       </c>
@@ -5408,8 +5585,12 @@
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="12"/>
-    </row>
-    <row r="43" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R42" s="10">
+        <f t="shared" si="0"/>
+        <v>97.629999999999981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -5453,8 +5634,12 @@
       <c r="Q43" s="10">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R43" s="10">
+        <f t="shared" si="0"/>
+        <v>99.97999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
@@ -5498,8 +5683,12 @@
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="12"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R44" s="10">
+        <f t="shared" si="0"/>
+        <v>98.570000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>57</v>
       </c>
@@ -5539,8 +5728,12 @@
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="12"/>
-    </row>
-    <row r="46" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R45" s="10">
+        <f t="shared" si="0"/>
+        <v>98.759999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>58</v>
       </c>
@@ -5580,8 +5773,12 @@
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="12"/>
-    </row>
-    <row r="47" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R46" s="10">
+        <f t="shared" si="0"/>
+        <v>98.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>59</v>
       </c>
@@ -5627,8 +5824,12 @@
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="12"/>
-    </row>
-    <row r="48" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R47" s="10">
+        <f t="shared" si="0"/>
+        <v>93.71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>85</v>
       </c>
@@ -5674,8 +5875,12 @@
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="12"/>
-    </row>
-    <row r="49" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R48" s="10">
+        <f t="shared" si="0"/>
+        <v>98.009999999999991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>86</v>
       </c>
@@ -5715,8 +5920,12 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="12"/>
-    </row>
-    <row r="50" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R49" s="10">
+        <f t="shared" si="0"/>
+        <v>97.899999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
@@ -5758,8 +5967,12 @@
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="12"/>
-    </row>
-    <row r="51" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="10">
+        <f t="shared" si="0"/>
+        <v>94.68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>103</v>
       </c>
@@ -5803,8 +6016,12 @@
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="12"/>
-    </row>
-    <row r="52" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R51" s="10">
+        <f t="shared" si="0"/>
+        <v>96.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>84</v>
       </c>
@@ -5848,8 +6065,12 @@
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="12"/>
-    </row>
-    <row r="53" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R52" s="10">
+        <f t="shared" si="0"/>
+        <v>99.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>62</v>
       </c>
@@ -5893,8 +6114,12 @@
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="12"/>
-    </row>
-    <row r="54" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R53" s="10">
+        <f t="shared" si="0"/>
+        <v>98.339999999999989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
@@ -5936,8 +6161,12 @@
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="12"/>
-    </row>
-    <row r="55" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R54" s="10">
+        <f t="shared" si="0"/>
+        <v>98.63000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>64</v>
       </c>
@@ -5983,8 +6212,12 @@
       </c>
       <c r="P55" s="10"/>
       <c r="Q55" s="12"/>
-    </row>
-    <row r="56" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R55" s="10">
+        <f t="shared" si="0"/>
+        <v>97.259999999999991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6265,12 @@
         <v>1.31</v>
       </c>
       <c r="Q56" s="12"/>
-    </row>
-    <row r="57" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R56" s="10">
+        <f t="shared" si="0"/>
+        <v>99.169999999999987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>87</v>
       </c>
@@ -6077,8 +6314,12 @@
       </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="12"/>
-    </row>
-    <row r="58" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R57" s="10">
+        <f t="shared" si="0"/>
+        <v>95.499999999999986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>88</v>
       </c>
@@ -6124,8 +6365,12 @@
       </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="12"/>
-    </row>
-    <row r="59" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R58" s="10">
+        <f t="shared" si="0"/>
+        <v>98.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>20</v>
       </c>
@@ -6169,8 +6414,12 @@
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="12"/>
-    </row>
-    <row r="60" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R59" s="10">
+        <f t="shared" si="0"/>
+        <v>90.17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>89</v>
       </c>
@@ -6212,8 +6461,12 @@
       </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="12"/>
-    </row>
-    <row r="61" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R60" s="10">
+        <f t="shared" si="0"/>
+        <v>96.940000000000012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>90</v>
       </c>
@@ -6259,8 +6512,12 @@
         <v>0.47</v>
       </c>
       <c r="Q61" s="12"/>
-    </row>
-    <row r="62" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R61" s="10">
+        <f t="shared" si="0"/>
+        <v>95.329999999999984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>91</v>
       </c>
@@ -6300,8 +6557,12 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="12"/>
-    </row>
-    <row r="63" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R62" s="10">
+        <f t="shared" si="0"/>
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>79</v>
       </c>
@@ -6347,8 +6608,12 @@
       </c>
       <c r="P63" s="10"/>
       <c r="Q63" s="12"/>
-    </row>
-    <row r="64" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R63" s="10">
+        <f t="shared" si="0"/>
+        <v>94.079999999999984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>101</v>
       </c>
@@ -6392,8 +6657,12 @@
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="12"/>
-    </row>
-    <row r="65" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R64" s="10">
+        <f t="shared" si="0"/>
+        <v>98.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>80</v>
       </c>
@@ -6437,8 +6706,12 @@
       </c>
       <c r="P65" s="10"/>
       <c r="Q65" s="12"/>
-    </row>
-    <row r="66" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R65" s="10">
+        <f t="shared" si="0"/>
+        <v>99.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>146</v>
       </c>
@@ -6476,8 +6749,12 @@
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="12"/>
-    </row>
-    <row r="67" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R66" s="10">
+        <f t="shared" si="0"/>
+        <v>96.92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>81</v>
       </c>
@@ -6517,8 +6794,12 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="12"/>
-    </row>
-    <row r="68" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R67" s="10">
+        <f t="shared" si="0"/>
+        <v>96.38000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>72</v>
       </c>
@@ -6556,8 +6837,12 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="12"/>
-    </row>
-    <row r="69" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R68" s="10">
+        <f t="shared" ref="R68:R70" si="1">SUM(D68:Q68)</f>
+        <v>92.240000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>73</v>
       </c>
@@ -6593,8 +6878,12 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="12"/>
-    </row>
-    <row r="70" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="R69" s="10">
+        <f t="shared" si="1"/>
+        <v>92.47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>74</v>
       </c>
@@ -6640,6 +6929,10 @@
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
+      <c r="R70" s="10">
+        <f t="shared" si="1"/>
+        <v>98.759999999999991</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q70" xr:uid="{00000000-0001-0000-0100-000000000000}"/>

--- a/excel/表单2处理.xlsx
+++ b/excel/表单2处理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G\exercise\github\2022_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20152C5-36BE-40C2-83C4-9CF8028160B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB3526B-76F0-4713-9A7B-ABC4A3204A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">表单1!$A$1:$E$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表单2!$A$1:$Q$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表单2!$A$1:$R$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="173">
   <si>
     <t>表面风化</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2549,12 +2549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>115</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>104</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>116</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
@@ -2936,7 +2935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>117</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>119</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>46</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>111</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>47</v>
       </c>
@@ -3055,7 +3054,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>60</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>120</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>61</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>65</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>66</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>67</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>68</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>121</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>70</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>72</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>73</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>74</v>
       </c>
@@ -3560,13 +3559,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E59" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="无风化"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">
     <sortCondition ref="A2:A59"/>
   </sortState>
@@ -3579,21 +3572,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S68" sqref="S68"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.6640625" style="13" customWidth="1"/>
-    <col min="4" max="17" width="10.6640625" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="11"/>
+    <col min="1" max="4" width="12.6640625" style="13" customWidth="1"/>
+    <col min="5" max="18" width="10.6640625" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>142</v>
       </c>
@@ -3603,53 +3596,56 @@
       <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>143</v>
       </c>
@@ -3659,44 +3655,47 @@
       <c r="C2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10">
         <v>69.33</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
         <v>9.99</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>6.32</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>0.87</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>3.93</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="10">
         <v>1.74</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="10">
         <v>3.87</v>
       </c>
-      <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="10">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10">
         <v>1.17</v>
       </c>
-      <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="10">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10">
         <v>0.39</v>
       </c>
-      <c r="R2" s="10">
-        <f>SUM(D2:Q2)</f>
+      <c r="S2" s="10">
+        <f>SUM(E2:R2)</f>
         <v>97.61</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>95</v>
       </c>
@@ -3706,46 +3705,49 @@
       <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10">
         <v>36.28</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
         <v>1.05</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>2.34</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>1.18</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>5.73</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>1.86</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>0.26</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>47.43</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10">
         <v>3.57</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>0.19</v>
       </c>
-      <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10">
-        <f>SUM(D3:Q3)</f>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10">
+        <f>SUM(E3:R3)</f>
         <v>99.889999999999986</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -3755,40 +3757,43 @@
       <c r="C4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
         <v>87.05</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
         <v>5.19</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
         <v>4.0599999999999996</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10">
         <v>0.78</v>
       </c>
-      <c r="L4" s="10">
+      <c r="M4" s="10">
         <v>0.25</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10">
         <v>0.66</v>
       </c>
-      <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10">
-        <f t="shared" ref="R4:R67" si="0">SUM(D4:Q4)</f>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10">
+        <f t="shared" ref="S4:S67" si="0">SUM(E4:R4)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -3798,48 +3803,51 @@
       <c r="C5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
         <v>61.71</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>12.37</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>5.87</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>5.5</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>2.16</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>5.09</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>1.41</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>2.86</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>0.7</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>0.1</v>
       </c>
-      <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="10">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10">
         <f t="shared" si="0"/>
         <v>98.88</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -3849,44 +3857,47 @@
       <c r="C6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
         <v>65.88</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
         <v>9.67</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>7.12</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>1.56</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>6.44</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>2.06</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10">
         <v>0.79</v>
       </c>
-      <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10">
         <v>0.36</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <f t="shared" si="0"/>
         <v>96.060000000000016</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -3896,46 +3907,49 @@
       <c r="C7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
         <v>61.58</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>10.95</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>7.35</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>1.77</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>7.5</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>2.62</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>3.27</v>
       </c>
-      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="10">
+      <c r="N7" s="10"/>
+      <c r="O7" s="10">
         <v>0.94</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>0.06</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10">
         <v>0.47</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <f t="shared" si="0"/>
         <v>96.509999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -3945,46 +3959,49 @@
       <c r="C8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
         <v>67.650000000000006</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <v>7.37</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
         <v>1.98</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <v>11.15</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K8" s="10">
         <v>2.39</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <v>0.2</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <v>1.38</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>4.18</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>0.11</v>
       </c>
-      <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
         <f t="shared" si="0"/>
         <v>98.92000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -3994,48 +4011,51 @@
       <c r="C9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
         <v>59.81</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>7.68</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>5.41</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>1.73</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <v>10.050000000000001</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <v>6.04</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>0.35</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>0.97</v>
       </c>
-      <c r="N9" s="10">
+      <c r="O9" s="10">
         <v>4.5</v>
       </c>
-      <c r="O9" s="10">
+      <c r="P9" s="10">
         <v>0.12</v>
       </c>
-      <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10">
         <f t="shared" si="0"/>
         <v>98.840000000000018</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -4045,38 +4065,41 @@
       <c r="C10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
         <v>92.63</v>
       </c>
-      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="10">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <v>1.07</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
         <v>1.98</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <v>0.17</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>3.24</v>
       </c>
-      <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="10">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10">
         <v>0.61</v>
       </c>
-      <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="10">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10">
         <f t="shared" si="0"/>
         <v>99.699999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>92</v>
       </c>
@@ -4086,44 +4109,47 @@
       <c r="C11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10">
         <v>20.14</v>
       </c>
-      <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>1.48</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
         <v>1.34</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <v>10.41</v>
       </c>
-      <c r="L11" s="10">
+      <c r="M11" s="10">
         <v>28.68</v>
       </c>
-      <c r="M11" s="10">
+      <c r="N11" s="10">
         <v>31.23</v>
       </c>
-      <c r="N11" s="10">
+      <c r="O11" s="10">
         <v>3.59</v>
       </c>
-      <c r="O11" s="10">
+      <c r="P11" s="10">
         <v>0.37</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10">
         <v>2.58</v>
       </c>
-      <c r="R11" s="10">
+      <c r="S11" s="10">
         <f t="shared" si="0"/>
         <v>99.820000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>148</v>
       </c>
@@ -4133,44 +4159,47 @@
       <c r="C12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10">
         <v>4.6100000000000003</v>
       </c>
-      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>3.19</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
         <v>3.14</v>
       </c>
-      <c r="L12" s="10">
+      <c r="M12" s="10">
         <v>32.450000000000003</v>
       </c>
-      <c r="M12" s="10">
+      <c r="N12" s="10">
         <v>30.62</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <v>7.56</v>
       </c>
-      <c r="O12" s="10">
+      <c r="P12" s="10">
         <v>0.53</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10">
         <v>15.03</v>
       </c>
-      <c r="R12" s="10">
+      <c r="S12" s="10">
         <f t="shared" si="0"/>
         <v>98.240000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -4180,40 +4209,43 @@
       <c r="C13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
         <v>95.02</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
         <v>0.59</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>0.62</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
         <v>1.32</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>0.32</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>1.55</v>
       </c>
-      <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="10">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10">
         <v>0.35</v>
       </c>
-      <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="10">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10">
         <f t="shared" si="0"/>
         <v>99.769999999999982</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -4223,38 +4255,41 @@
       <c r="C14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
         <v>96.77</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
         <v>0.92</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>0.21</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
         <v>0.81</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>0.26</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="10">
         <v>0.84</v>
       </c>
-      <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="10">
+      <c r="R14" s="10"/>
+      <c r="S14" s="10">
         <f t="shared" si="0"/>
         <v>99.81</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>96</v>
       </c>
@@ -4264,46 +4299,49 @@
       <c r="C15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10">
         <v>33.590000000000003</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
         <v>0.21</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>3.51</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>0.71</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <v>2.69</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10">
         <v>4.93</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>25.39</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>14.61</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <v>9.3800000000000008</v>
       </c>
-      <c r="O15" s="10">
+      <c r="P15" s="10">
         <v>0.37</v>
       </c>
-      <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="10">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10">
         <f t="shared" si="0"/>
         <v>95.39</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
@@ -4313,40 +4351,43 @@
       <c r="C16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
         <v>94.29</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <v>1.01</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>0.72</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
         <v>1.46</v>
       </c>
-      <c r="J16" s="10">
+      <c r="K16" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="10">
         <v>1.65</v>
       </c>
-      <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="10">
+      <c r="N16" s="10"/>
+      <c r="O16" s="10">
         <v>0.15</v>
       </c>
-      <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="10">
+      <c r="R16" s="10"/>
+      <c r="S16" s="10">
         <f t="shared" si="0"/>
         <v>99.570000000000022</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>75</v>
       </c>
@@ -4356,42 +4397,45 @@
       <c r="C17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10">
         <v>59.01</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="10">
         <v>2.86</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>12.53</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
         <v>6.16</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K17" s="10">
         <v>2.88</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="10">
         <v>4.7300000000000004</v>
       </c>
-      <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="10">
+      <c r="N17" s="10"/>
+      <c r="O17" s="10">
         <v>1.27</v>
       </c>
-      <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="10">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="10">
         <f t="shared" si="0"/>
         <v>98.139999999999986</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -4401,46 +4445,49 @@
       <c r="C18" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10">
         <v>62.47</v>
       </c>
-      <c r="E18" s="10">
+      <c r="F18" s="10">
         <v>3.38</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G18" s="10">
         <v>12.28</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>8.23</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
         <v>0.66</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="10">
         <v>9.23</v>
       </c>
-      <c r="J18" s="10">
+      <c r="K18" s="10">
         <v>0.5</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="10">
         <v>0.47</v>
       </c>
-      <c r="L18" s="10">
+      <c r="M18" s="10">
         <v>1.62</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10">
+      <c r="N18" s="10"/>
+      <c r="O18" s="10">
         <v>0.16</v>
       </c>
-      <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="10">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="10">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -4450,46 +4497,49 @@
       <c r="C19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10">
         <v>61.87</v>
       </c>
-      <c r="E19" s="10">
+      <c r="F19" s="10">
         <v>3.21</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G19" s="10">
         <v>7.44</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10">
         <v>1.02</v>
       </c>
-      <c r="I19" s="10">
+      <c r="J19" s="10">
         <v>3.15</v>
       </c>
-      <c r="J19" s="10">
+      <c r="K19" s="10">
         <v>1.04</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L19" s="10">
         <v>1.29</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <v>0.19</v>
       </c>
-      <c r="M19" s="10">
+      <c r="N19" s="10">
         <v>0</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <v>0.26</v>
       </c>
-      <c r="O19" s="10"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="10">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="10">
         <f t="shared" si="0"/>
         <v>79.470000000000013</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
@@ -4499,48 +4549,51 @@
       <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10">
         <v>65.180000000000007</v>
       </c>
-      <c r="E20" s="10">
+      <c r="F20" s="10">
         <v>2.1</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="10">
         <v>14.52</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <v>8.27</v>
       </c>
-      <c r="H20" s="10">
+      <c r="I20" s="10">
         <v>0.52</v>
       </c>
-      <c r="I20" s="10">
+      <c r="J20" s="10">
         <v>6.18</v>
       </c>
-      <c r="J20" s="10">
+      <c r="K20" s="10">
         <v>0.42</v>
       </c>
-      <c r="K20" s="10">
+      <c r="L20" s="10">
         <v>1.07</v>
       </c>
-      <c r="L20" s="10">
+      <c r="M20" s="10">
         <v>0.11</v>
       </c>
-      <c r="M20" s="10">
+      <c r="N20" s="10">
         <v>0</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10">
+      <c r="O20" s="10"/>
+      <c r="P20" s="10">
         <v>0.04</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="10">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="10">
         <f t="shared" si="0"/>
         <v>98.409999999999982</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
@@ -4550,46 +4603,49 @@
       <c r="C21" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
         <v>60.71</v>
       </c>
-      <c r="E21" s="10">
+      <c r="F21" s="10">
         <v>2.12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <v>5.71</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
         <v>0.85</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
         <v>1.04</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L21" s="10">
         <v>1.0900000000000001</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>0.19</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="10">
         <v>0</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <v>0.18</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10">
         <v>0</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="10">
+      <c r="R21" s="12"/>
+      <c r="S21" s="10">
         <f t="shared" si="0"/>
         <v>71.89</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -4599,40 +4655,43 @@
       <c r="C22" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="10">
         <v>79.459999999999994</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
         <v>9.42</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10">
         <v>1.53</v>
       </c>
-      <c r="I22" s="10">
+      <c r="J22" s="10">
         <v>3.05</v>
       </c>
-      <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="10">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10">
         <v>1.36</v>
       </c>
-      <c r="O22" s="10">
+      <c r="P22" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P22" s="10">
+      <c r="Q22" s="10">
         <v>2.36</v>
       </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="10">
+      <c r="R22" s="12"/>
+      <c r="S22" s="10">
         <f t="shared" si="0"/>
         <v>97.249999999999986</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
@@ -4642,46 +4701,47 @@
       <c r="C23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="4"/>
+      <c r="E23" s="10">
         <v>29.64</v>
       </c>
-      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="10">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>2.93</v>
       </c>
-      <c r="H23" s="10">
+      <c r="I23" s="10">
         <v>0.59</v>
       </c>
-      <c r="I23" s="10">
+      <c r="J23" s="10">
         <v>3.57</v>
       </c>
-      <c r="J23" s="10">
+      <c r="K23" s="10">
         <v>1.33</v>
       </c>
-      <c r="K23" s="10">
+      <c r="L23" s="10">
         <v>3.51</v>
       </c>
-      <c r="L23" s="10">
+      <c r="M23" s="10">
         <v>42.82</v>
       </c>
-      <c r="M23" s="10">
+      <c r="N23" s="10">
         <v>5.35</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <v>8.83</v>
       </c>
-      <c r="O23" s="10">
+      <c r="P23" s="10">
         <v>0.19</v>
       </c>
-      <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="10">
+      <c r="R23" s="10"/>
+      <c r="S23" s="10">
         <f t="shared" si="0"/>
         <v>98.759999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
@@ -4691,42 +4751,45 @@
       <c r="C24" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10">
         <v>37.36</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <v>0.71</v>
       </c>
-      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10">
         <v>5.45</v>
       </c>
-      <c r="J24" s="10">
+      <c r="K24" s="10">
         <v>1.51</v>
       </c>
-      <c r="K24" s="10">
+      <c r="L24" s="10">
         <v>4.78</v>
       </c>
-      <c r="L24" s="10">
+      <c r="M24" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M24" s="10">
+      <c r="N24" s="10">
         <v>23.55</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <v>5.75</v>
       </c>
-      <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="10">
+      <c r="R24" s="10"/>
+      <c r="S24" s="10">
         <f t="shared" si="0"/>
         <v>88.41</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
@@ -4736,44 +4799,47 @@
       <c r="C25" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
         <v>76.680000000000007</v>
       </c>
-      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="10">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
         <v>4.71</v>
       </c>
-      <c r="H25" s="10">
+      <c r="I25" s="10">
         <v>1.22</v>
       </c>
-      <c r="I25" s="10">
+      <c r="J25" s="10">
         <v>6.19</v>
       </c>
-      <c r="J25" s="10">
+      <c r="K25" s="10">
         <v>2.37</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L25" s="10">
         <v>3.28</v>
       </c>
-      <c r="L25" s="10">
+      <c r="M25" s="10">
         <v>1</v>
       </c>
-      <c r="M25" s="10">
+      <c r="N25" s="10">
         <v>1.97</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="10">
+      <c r="R25" s="10"/>
+      <c r="S25" s="10">
         <f t="shared" si="0"/>
         <v>98.52</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
@@ -4783,42 +4849,45 @@
       <c r="C26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
         <v>92.35</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
         <v>0.74</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <v>1.66</v>
       </c>
-      <c r="H26" s="10">
+      <c r="I26" s="10">
         <v>0.64</v>
       </c>
-      <c r="I26" s="10">
+      <c r="J26" s="10">
         <v>3.5</v>
       </c>
-      <c r="J26" s="10">
+      <c r="K26" s="10">
         <v>0.35</v>
       </c>
-      <c r="K26" s="10">
+      <c r="L26" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="10">
+      <c r="N26" s="10"/>
+      <c r="O26" s="10">
         <v>0.21</v>
       </c>
-      <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="10">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10">
         <f t="shared" si="0"/>
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>98</v>
       </c>
@@ -4828,44 +4897,47 @@
       <c r="C27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
         <v>53.79</v>
       </c>
-      <c r="E27" s="10">
+      <c r="F27" s="10">
         <v>7.92</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>0.5</v>
       </c>
-      <c r="H27" s="10">
+      <c r="I27" s="10">
         <v>0.71</v>
       </c>
-      <c r="I27" s="10">
+      <c r="J27" s="10">
         <v>1.42</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10">
         <v>2.99</v>
       </c>
-      <c r="L27" s="10">
+      <c r="M27" s="10">
         <v>16.98</v>
       </c>
-      <c r="M27" s="10">
+      <c r="N27" s="10">
         <v>11.86</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10">
+      <c r="O27" s="10"/>
+      <c r="P27" s="10">
         <v>0.33</v>
       </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="10">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="10">
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -4875,42 +4947,45 @@
       <c r="C28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="10">
         <v>31.94</v>
       </c>
-      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="10">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <v>0.47</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10">
         <v>1.59</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10">
         <v>8.4600000000000009</v>
       </c>
-      <c r="L28" s="10">
+      <c r="M28" s="10">
         <v>29.14</v>
       </c>
-      <c r="M28" s="10">
+      <c r="N28" s="10">
         <v>26.23</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O28" s="10">
+      <c r="P28" s="10">
         <v>0.91</v>
       </c>
-      <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="10">
+      <c r="R28" s="10"/>
+      <c r="S28" s="10">
         <f t="shared" si="0"/>
         <v>98.88000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -4920,46 +4995,49 @@
       <c r="C29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="10">
         <v>50.61</v>
       </c>
-      <c r="E29" s="10">
+      <c r="F29" s="10">
         <v>2.31</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
         <v>0.63</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10">
         <v>1.9</v>
       </c>
-      <c r="J29" s="10">
+      <c r="K29" s="10">
         <v>1.55</v>
       </c>
-      <c r="K29" s="10">
+      <c r="L29" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M29" s="10">
         <v>31.9</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="10">
         <v>6.65</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <v>0.19</v>
       </c>
-      <c r="O29" s="10">
+      <c r="P29" s="10">
         <v>0.2</v>
       </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="10">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="10">
         <f t="shared" si="0"/>
         <v>97.06</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>141</v>
       </c>
@@ -4969,44 +5047,47 @@
       <c r="C30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10">
         <v>19.79</v>
       </c>
-      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
         <v>1.44</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10">
         <v>0.7</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10">
+      <c r="K30" s="10"/>
+      <c r="L30" s="10">
         <v>10.57</v>
       </c>
-      <c r="L30" s="10">
+      <c r="M30" s="10">
         <v>29.53</v>
       </c>
-      <c r="M30" s="10">
+      <c r="N30" s="10">
         <v>32.25</v>
       </c>
-      <c r="N30" s="10">
+      <c r="O30" s="10">
         <v>3.13</v>
       </c>
-      <c r="O30" s="10">
+      <c r="P30" s="10">
         <v>0.45</v>
       </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10">
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10">
         <v>1.96</v>
       </c>
-      <c r="R30" s="10">
+      <c r="S30" s="10">
         <f t="shared" si="0"/>
         <v>99.82</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>147</v>
       </c>
@@ -5016,46 +5097,49 @@
       <c r="C31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="10">
         <v>3.72</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10">
         <v>0.4</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <v>3.01</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10">
         <v>1.18</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10">
+      <c r="K31" s="10"/>
+      <c r="L31" s="10">
         <v>3.6</v>
       </c>
-      <c r="L31" s="10">
+      <c r="M31" s="10">
         <v>29.92</v>
       </c>
-      <c r="M31" s="10">
+      <c r="N31" s="10">
         <v>35.450000000000003</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="10">
         <v>6.04</v>
       </c>
-      <c r="O31" s="10">
+      <c r="P31" s="10">
         <v>0.62</v>
       </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10">
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10">
         <v>15.95</v>
       </c>
-      <c r="R31" s="10">
+      <c r="S31" s="10">
         <f t="shared" si="0"/>
         <v>99.890000000000015</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>76</v>
       </c>
@@ -5065,40 +5149,43 @@
       <c r="C32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10">
         <v>92.72</v>
       </c>
-      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
         <v>0.94</v>
       </c>
-      <c r="H32" s="10">
+      <c r="I32" s="10">
         <v>0.54</v>
       </c>
-      <c r="I32" s="10">
+      <c r="J32" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J32" s="10">
+      <c r="K32" s="10">
         <v>0.2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="L32" s="10">
         <v>1.54</v>
       </c>
-      <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="10">
+      <c r="N32" s="10"/>
+      <c r="O32" s="10">
         <v>0.36</v>
       </c>
-      <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="10">
+      <c r="R32" s="10"/>
+      <c r="S32" s="10">
         <f t="shared" si="0"/>
         <v>98.810000000000016</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>169</v>
       </c>
@@ -5108,50 +5195,53 @@
       <c r="C33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="10">
         <v>68.08</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10">
         <v>0.26</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="10">
         <v>1.34</v>
       </c>
-      <c r="H33" s="10">
+      <c r="I33" s="10">
         <v>1</v>
       </c>
-      <c r="I33" s="10">
+      <c r="J33" s="10">
         <v>4.7</v>
       </c>
-      <c r="J33" s="10">
+      <c r="K33" s="10">
         <v>0.41</v>
       </c>
-      <c r="K33" s="10">
+      <c r="L33" s="10">
         <v>0.33</v>
       </c>
-      <c r="L33" s="10">
+      <c r="M33" s="10">
         <v>17.14</v>
       </c>
-      <c r="M33" s="10">
+      <c r="N33" s="10">
         <v>4.04</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <v>1.04</v>
       </c>
-      <c r="O33" s="10">
+      <c r="P33" s="10">
         <v>0.12</v>
       </c>
-      <c r="P33" s="10">
+      <c r="Q33" s="10">
         <v>0.23</v>
       </c>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="10">
+      <c r="R33" s="12"/>
+      <c r="S33" s="10">
         <f t="shared" si="0"/>
         <v>98.690000000000026</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>83</v>
       </c>
@@ -5161,50 +5251,53 @@
       <c r="C34" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="10">
         <v>63.3</v>
       </c>
-      <c r="E34" s="10">
+      <c r="F34" s="10">
         <v>0.92</v>
       </c>
-      <c r="F34" s="10">
+      <c r="G34" s="10">
         <v>0.3</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <v>2.98</v>
       </c>
-      <c r="H34" s="10">
+      <c r="I34" s="10">
         <v>1.49</v>
       </c>
-      <c r="I34" s="10">
+      <c r="J34" s="10">
         <v>14.34</v>
       </c>
-      <c r="J34" s="10">
+      <c r="K34" s="10">
         <v>0.81</v>
       </c>
-      <c r="K34" s="10">
+      <c r="L34" s="10">
         <v>0.74</v>
       </c>
-      <c r="L34" s="10">
+      <c r="M34" s="10">
         <v>12.31</v>
       </c>
-      <c r="M34" s="10">
+      <c r="N34" s="10">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N34" s="10">
+      <c r="O34" s="10">
         <v>0.41</v>
       </c>
-      <c r="O34" s="10">
+      <c r="P34" s="10">
         <v>0.25</v>
       </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="10">
+      <c r="Q34" s="10"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="10">
         <f t="shared" si="0"/>
         <v>99.88</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
@@ -5214,46 +5307,49 @@
       <c r="C35" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="10">
         <v>34.340000000000003</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10">
         <v>1.41</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="10">
         <v>4.49</v>
       </c>
-      <c r="H35" s="10">
+      <c r="I35" s="10">
         <v>0.98</v>
       </c>
-      <c r="I35" s="10">
+      <c r="J35" s="10">
         <v>4.3499999999999996</v>
       </c>
-      <c r="J35" s="10">
+      <c r="K35" s="10">
         <v>2.12</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10">
+      <c r="L35" s="10"/>
+      <c r="M35" s="10">
         <v>39.22</v>
       </c>
-      <c r="M35" s="10">
+      <c r="N35" s="10">
         <v>10.29</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10">
+      <c r="O35" s="10"/>
+      <c r="P35" s="10">
         <v>0.35</v>
       </c>
-      <c r="P35" s="10">
+      <c r="Q35" s="10">
         <v>0.4</v>
       </c>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="10">
+      <c r="R35" s="12"/>
+      <c r="S35" s="10">
         <f t="shared" si="0"/>
         <v>97.949999999999989</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>78</v>
       </c>
@@ -5263,46 +5359,49 @@
       <c r="C36" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="10">
         <v>36.93</v>
       </c>
-      <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="10">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10">
         <v>4.24</v>
       </c>
-      <c r="H36" s="10">
+      <c r="I36" s="10">
         <v>0.51</v>
       </c>
-      <c r="I36" s="10">
+      <c r="J36" s="10">
         <v>3.86</v>
       </c>
-      <c r="J36" s="10">
+      <c r="K36" s="10">
         <v>2.74</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10">
+      <c r="L36" s="10"/>
+      <c r="M36" s="10">
         <v>37.74</v>
       </c>
-      <c r="M36" s="10">
+      <c r="N36" s="10">
         <v>10.35</v>
       </c>
-      <c r="N36" s="10">
+      <c r="O36" s="10">
         <v>1.41</v>
       </c>
-      <c r="O36" s="10">
+      <c r="P36" s="10">
         <v>0.48</v>
       </c>
-      <c r="P36" s="10">
+      <c r="Q36" s="10">
         <v>0.44</v>
       </c>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="10">
+      <c r="R36" s="12"/>
+      <c r="S36" s="10">
         <f t="shared" si="0"/>
         <v>98.7</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>97</v>
       </c>
@@ -5312,46 +5411,49 @@
       <c r="C37" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10">
         <v>65.91</v>
       </c>
-      <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="10">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
         <v>1.6</v>
       </c>
-      <c r="H37" s="10">
+      <c r="I37" s="10">
         <v>0.89</v>
       </c>
-      <c r="I37" s="10">
+      <c r="J37" s="10">
         <v>3.11</v>
       </c>
-      <c r="J37" s="10">
+      <c r="K37" s="10">
         <v>4.59</v>
       </c>
-      <c r="K37" s="10">
+      <c r="L37" s="10">
         <v>0.44</v>
       </c>
-      <c r="L37" s="10">
+      <c r="M37" s="10">
         <v>16.55</v>
       </c>
-      <c r="M37" s="10">
+      <c r="N37" s="10">
         <v>3.42</v>
       </c>
-      <c r="N37" s="10">
+      <c r="O37" s="10">
         <v>1.62</v>
       </c>
-      <c r="O37" s="10">
+      <c r="P37" s="10">
         <v>0.3</v>
       </c>
-      <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="10">
+      <c r="R37" s="10"/>
+      <c r="S37" s="10">
         <f t="shared" si="0"/>
         <v>98.429999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
@@ -5361,44 +5463,47 @@
       <c r="C38" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="10">
         <v>69.709999999999994</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10">
         <v>0.21</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <v>0.46</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10">
+      <c r="I38" s="10"/>
+      <c r="J38" s="10">
         <v>2.36</v>
       </c>
-      <c r="J38" s="10">
+      <c r="K38" s="10">
         <v>1</v>
       </c>
-      <c r="K38" s="10">
+      <c r="L38" s="10">
         <v>0.11</v>
       </c>
-      <c r="L38" s="10">
+      <c r="M38" s="10">
         <v>19.760000000000002</v>
       </c>
-      <c r="M38" s="10">
+      <c r="N38" s="10">
         <v>4.88</v>
       </c>
-      <c r="N38" s="10">
+      <c r="O38" s="10">
         <v>0.17</v>
       </c>
-      <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="10">
+      <c r="Q38" s="10"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="10">
         <f t="shared" si="0"/>
         <v>98.659999999999982</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>18</v>
       </c>
@@ -5408,44 +5513,47 @@
       <c r="C39" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10">
         <v>75.510000000000005</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10">
         <v>0.15</v>
       </c>
-      <c r="G39" s="10">
+      <c r="H39" s="10">
         <v>0.64</v>
       </c>
-      <c r="H39" s="10">
+      <c r="I39" s="10">
         <v>1</v>
       </c>
-      <c r="I39" s="10">
+      <c r="J39" s="10">
         <v>2.35</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10">
+      <c r="K39" s="10"/>
+      <c r="L39" s="10">
         <v>0.47</v>
       </c>
-      <c r="L39" s="10">
+      <c r="M39" s="10">
         <v>16.16</v>
       </c>
-      <c r="M39" s="10">
+      <c r="N39" s="10">
         <v>3.55</v>
       </c>
-      <c r="N39" s="10">
+      <c r="O39" s="10">
         <v>0.13</v>
       </c>
-      <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="10">
+      <c r="Q39" s="10"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="10">
         <f t="shared" si="0"/>
         <v>99.96</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>19</v>
       </c>
@@ -5455,46 +5563,49 @@
       <c r="C40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10">
         <v>35.78</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10">
         <v>0.25</v>
       </c>
-      <c r="G40" s="10">
+      <c r="H40" s="10">
         <v>0.78</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10">
+      <c r="I40" s="10"/>
+      <c r="J40" s="10">
         <v>1.62</v>
       </c>
-      <c r="J40" s="10">
+      <c r="K40" s="10">
         <v>0.47</v>
       </c>
-      <c r="K40" s="10">
+      <c r="L40" s="10">
         <v>1.51</v>
       </c>
-      <c r="L40" s="10">
+      <c r="M40" s="10">
         <v>46.55</v>
       </c>
-      <c r="M40" s="10">
+      <c r="N40" s="10">
         <v>10</v>
       </c>
-      <c r="N40" s="10">
+      <c r="O40" s="10">
         <v>0.34</v>
       </c>
-      <c r="O40" s="10">
+      <c r="P40" s="10">
         <v>0.22</v>
       </c>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="10">
+      <c r="Q40" s="10"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="10">
         <f t="shared" si="0"/>
         <v>97.52</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>53</v>
       </c>
@@ -5504,42 +5615,45 @@
       <c r="C41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="10">
         <v>65.91</v>
       </c>
-      <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="10">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
         <v>0.38</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10">
         <v>1.44</v>
       </c>
-      <c r="J41" s="10">
+      <c r="K41" s="10">
         <v>0.17</v>
       </c>
-      <c r="K41" s="10">
+      <c r="L41" s="10">
         <v>0.16</v>
       </c>
-      <c r="L41" s="10">
+      <c r="M41" s="10">
         <v>22.05</v>
       </c>
-      <c r="M41" s="10">
+      <c r="N41" s="10">
         <v>5.68</v>
       </c>
-      <c r="N41" s="10">
+      <c r="O41" s="10">
         <v>0.42</v>
       </c>
-      <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="10">
+      <c r="Q41" s="10"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="10">
         <f t="shared" si="0"/>
         <v>96.21</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>54</v>
       </c>
@@ -5549,48 +5663,51 @@
       <c r="C42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="10">
         <v>39.57</v>
       </c>
-      <c r="E42" s="10">
+      <c r="F42" s="10">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F42" s="10">
+      <c r="G42" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="10">
         <v>0.37</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10">
+      <c r="I42" s="10"/>
+      <c r="J42" s="10">
         <v>1.6</v>
       </c>
-      <c r="J42" s="10">
+      <c r="K42" s="10">
         <v>0.32</v>
       </c>
-      <c r="K42" s="10">
+      <c r="L42" s="10">
         <v>0.68</v>
       </c>
-      <c r="L42" s="10">
+      <c r="M42" s="10">
         <v>41.61</v>
       </c>
-      <c r="M42" s="10">
+      <c r="N42" s="10">
         <v>10.83</v>
       </c>
-      <c r="N42" s="10">
+      <c r="O42" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O42" s="10">
+      <c r="P42" s="10">
         <v>0.22</v>
       </c>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="10">
+      <c r="Q42" s="10"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="10">
         <f t="shared" si="0"/>
         <v>97.629999999999981</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>99</v>
       </c>
@@ -5600,46 +5717,49 @@
       <c r="C43" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10">
         <v>60.12</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10">
         <v>0.23</v>
       </c>
-      <c r="G43" s="10">
+      <c r="H43" s="10">
         <v>0.89</v>
       </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10">
+      <c r="I43" s="10"/>
+      <c r="J43" s="10">
         <v>2.72</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10">
+      <c r="K43" s="10"/>
+      <c r="L43" s="10">
         <v>3.01</v>
       </c>
-      <c r="L43" s="10">
+      <c r="M43" s="10">
         <v>17.239999999999998</v>
       </c>
-      <c r="M43" s="10">
+      <c r="N43" s="10">
         <v>10.34</v>
       </c>
-      <c r="N43" s="10">
+      <c r="O43" s="10">
         <v>1.46</v>
       </c>
-      <c r="O43" s="10">
+      <c r="P43" s="10">
         <v>0.31</v>
       </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10">
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10">
         <v>3.66</v>
       </c>
-      <c r="R43" s="10">
+      <c r="S43" s="10">
         <f t="shared" si="0"/>
         <v>99.97999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
@@ -5649,46 +5769,49 @@
       <c r="C44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10">
         <v>32.93</v>
       </c>
-      <c r="E44" s="10">
+      <c r="F44" s="10">
         <v>1.38</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10">
+      <c r="G44" s="10"/>
+      <c r="H44" s="10">
         <v>0.68</v>
       </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10">
+      <c r="I44" s="10"/>
+      <c r="J44" s="10">
         <v>2.57</v>
       </c>
-      <c r="J44" s="10">
+      <c r="K44" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K44" s="10">
+      <c r="L44" s="10">
         <v>0.73</v>
       </c>
-      <c r="L44" s="10">
+      <c r="M44" s="10">
         <v>49.31</v>
       </c>
-      <c r="M44" s="10">
+      <c r="N44" s="10">
         <v>9.7899999999999991</v>
       </c>
-      <c r="N44" s="10">
+      <c r="O44" s="10">
         <v>0.48</v>
       </c>
-      <c r="O44" s="10">
+      <c r="P44" s="10">
         <v>0.41</v>
       </c>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="10">
+      <c r="Q44" s="10"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="10">
         <f t="shared" si="0"/>
         <v>98.570000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>57</v>
       </c>
@@ -5698,42 +5821,45 @@
       <c r="C45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10">
         <v>26.25</v>
       </c>
-      <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="10">
+      <c r="G45" s="10"/>
+      <c r="H45" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10">
+      <c r="I45" s="10"/>
+      <c r="J45" s="10">
         <v>0.5</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10">
+      <c r="K45" s="10"/>
+      <c r="L45" s="10">
         <v>0.88</v>
       </c>
-      <c r="L45" s="10">
+      <c r="M45" s="10">
         <v>61.03</v>
       </c>
-      <c r="M45" s="10">
+      <c r="N45" s="10">
         <v>7.22</v>
       </c>
-      <c r="N45" s="10">
+      <c r="O45" s="10">
         <v>1.1599999999999999</v>
       </c>
-      <c r="O45" s="10">
+      <c r="P45" s="10">
         <v>0.61</v>
       </c>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="10">
+      <c r="Q45" s="10"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="10">
         <f t="shared" si="0"/>
         <v>98.759999999999991</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>58</v>
       </c>
@@ -5743,42 +5869,43 @@
       <c r="C46" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="4"/>
+      <c r="E46" s="10">
         <v>16.71</v>
       </c>
-      <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="10">
+      <c r="G46" s="10"/>
+      <c r="H46" s="10">
         <v>1.87</v>
       </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10">
+      <c r="I46" s="10"/>
+      <c r="J46" s="10">
         <v>0.45</v>
       </c>
-      <c r="J46" s="10">
+      <c r="K46" s="10">
         <v>0.19</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10">
+      <c r="L46" s="10"/>
+      <c r="M46" s="10">
         <v>70.209999999999994</v>
       </c>
-      <c r="M46" s="10">
+      <c r="N46" s="10">
         <v>6.69</v>
       </c>
-      <c r="N46" s="10">
+      <c r="O46" s="10">
         <v>1.77</v>
       </c>
-      <c r="O46" s="10">
+      <c r="P46" s="10">
         <v>0.68</v>
       </c>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="10">
+      <c r="Q46" s="10"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="10">
         <f t="shared" si="0"/>
         <v>98.57</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>59</v>
       </c>
@@ -5788,48 +5915,51 @@
       <c r="C47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="10">
         <v>18.46</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10">
         <v>0.44</v>
       </c>
-      <c r="G47" s="10">
+      <c r="H47" s="10">
         <v>4.96</v>
       </c>
-      <c r="H47" s="10">
+      <c r="I47" s="10">
         <v>2.73</v>
       </c>
-      <c r="I47" s="10">
+      <c r="J47" s="10">
         <v>3.33</v>
       </c>
-      <c r="J47" s="10">
+      <c r="K47" s="10">
         <v>1.79</v>
       </c>
-      <c r="K47" s="10">
+      <c r="L47" s="10">
         <v>0.19</v>
       </c>
-      <c r="L47" s="10">
+      <c r="M47" s="10">
         <v>44.12</v>
       </c>
-      <c r="M47" s="10">
+      <c r="N47" s="10">
         <v>9.76</v>
       </c>
-      <c r="N47" s="10">
+      <c r="O47" s="10">
         <v>7.46</v>
       </c>
-      <c r="O47" s="10">
+      <c r="P47" s="10">
         <v>0.47</v>
       </c>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="10">
+      <c r="Q47" s="10"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="10">
         <f t="shared" si="0"/>
         <v>93.71</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>85</v>
       </c>
@@ -5839,48 +5969,51 @@
       <c r="C48" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="10">
         <v>51.26</v>
       </c>
-      <c r="E48" s="10">
+      <c r="F48" s="10">
         <v>5.74</v>
       </c>
-      <c r="F48" s="10">
+      <c r="G48" s="10">
         <v>0.15</v>
       </c>
-      <c r="G48" s="10">
+      <c r="H48" s="10">
         <v>0.79</v>
       </c>
-      <c r="H48" s="10">
+      <c r="I48" s="10">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I48" s="10">
+      <c r="J48" s="10">
         <v>3.53</v>
       </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10">
+      <c r="K48" s="10"/>
+      <c r="L48" s="10">
         <v>2.67</v>
       </c>
-      <c r="L48" s="10">
+      <c r="M48" s="10">
         <v>21.88</v>
       </c>
-      <c r="M48" s="10">
+      <c r="N48" s="10">
         <v>10.47</v>
       </c>
-      <c r="N48" s="10">
+      <c r="O48" s="10">
         <v>0.08</v>
       </c>
-      <c r="O48" s="10">
+      <c r="P48" s="10">
         <v>0.35</v>
       </c>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="10">
+      <c r="Q48" s="10"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="10">
         <f t="shared" si="0"/>
         <v>98.009999999999991</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>86</v>
       </c>
@@ -5890,42 +6023,45 @@
       <c r="C49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="10">
         <v>51.33</v>
       </c>
-      <c r="E49" s="10">
+      <c r="F49" s="10">
         <v>5.68</v>
       </c>
-      <c r="F49" s="10">
+      <c r="G49" s="10">
         <v>0.35</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10">
+      <c r="H49" s="10"/>
+      <c r="I49" s="10">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I49" s="10">
+      <c r="J49" s="10">
         <v>5.66</v>
       </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10">
+      <c r="K49" s="10"/>
+      <c r="L49" s="10">
         <v>2.72</v>
       </c>
-      <c r="L49" s="10">
+      <c r="M49" s="10">
         <v>20.12</v>
       </c>
-      <c r="M49" s="10">
+      <c r="N49" s="10">
         <v>10.88</v>
       </c>
-      <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="10">
+      <c r="Q49" s="10"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="10">
         <f t="shared" si="0"/>
         <v>97.899999999999991</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
@@ -5935,44 +6071,47 @@
       <c r="C50" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="10">
         <v>12.41</v>
       </c>
-      <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="10">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
         <v>5.24</v>
       </c>
-      <c r="H50" s="10">
+      <c r="I50" s="10">
         <v>0.89</v>
       </c>
-      <c r="I50" s="10">
+      <c r="J50" s="10">
         <v>2.25</v>
       </c>
-      <c r="J50" s="10">
+      <c r="K50" s="10">
         <v>0.76</v>
       </c>
-      <c r="K50" s="10">
+      <c r="L50" s="10">
         <v>5.35</v>
       </c>
-      <c r="L50" s="10">
+      <c r="M50" s="10">
         <v>59.85</v>
       </c>
-      <c r="M50" s="10">
+      <c r="N50" s="10">
         <v>7.29</v>
       </c>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10">
+      <c r="O50" s="10"/>
+      <c r="P50" s="10">
         <v>0.64</v>
       </c>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="10">
+      <c r="Q50" s="10"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="10">
         <f t="shared" si="0"/>
         <v>94.68</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>103</v>
       </c>
@@ -5982,46 +6121,49 @@
       <c r="C51" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="10">
         <v>21.7</v>
       </c>
-      <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="10">
+      <c r="G51" s="10"/>
+      <c r="H51" s="10">
         <v>6.4</v>
       </c>
-      <c r="H51" s="10">
+      <c r="I51" s="10">
         <v>0.95</v>
       </c>
-      <c r="I51" s="10">
+      <c r="J51" s="10">
         <v>3.41</v>
       </c>
-      <c r="J51" s="10">
+      <c r="K51" s="10">
         <v>1.39</v>
       </c>
-      <c r="K51" s="10">
+      <c r="L51" s="10">
         <v>1.51</v>
       </c>
-      <c r="L51" s="10">
+      <c r="M51" s="10">
         <v>44.75</v>
       </c>
-      <c r="M51" s="10">
+      <c r="N51" s="10">
         <v>3.26</v>
       </c>
-      <c r="N51" s="10">
+      <c r="O51" s="10">
         <v>12.83</v>
       </c>
-      <c r="O51" s="10">
+      <c r="P51" s="10">
         <v>0.47</v>
       </c>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="10">
+      <c r="Q51" s="10"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="10">
         <f t="shared" si="0"/>
         <v>96.67</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>84</v>
       </c>
@@ -6031,46 +6173,49 @@
       <c r="C52" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10">
         <v>60.74</v>
       </c>
-      <c r="E52" s="10">
+      <c r="F52" s="10">
         <v>3.06</v>
       </c>
-      <c r="F52" s="10">
+      <c r="G52" s="10">
         <v>0.2</v>
       </c>
-      <c r="G52" s="10">
+      <c r="H52" s="10">
         <v>2.14</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10">
+      <c r="I52" s="10"/>
+      <c r="J52" s="10">
         <v>12.69</v>
       </c>
-      <c r="J52" s="10">
+      <c r="K52" s="10">
         <v>0.77</v>
       </c>
-      <c r="K52" s="10">
+      <c r="L52" s="10">
         <v>0.43</v>
       </c>
-      <c r="L52" s="10">
+      <c r="M52" s="10">
         <v>13.61</v>
       </c>
-      <c r="M52" s="10">
+      <c r="N52" s="10">
         <v>5.22</v>
       </c>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10">
+      <c r="O52" s="10"/>
+      <c r="P52" s="10">
         <v>0.26</v>
       </c>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="10">
+      <c r="Q52" s="10"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="10">
         <f t="shared" si="0"/>
         <v>99.12</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>62</v>
       </c>
@@ -6080,46 +6225,49 @@
       <c r="C53" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10">
         <v>61.28</v>
       </c>
-      <c r="E53" s="10">
+      <c r="F53" s="10">
         <v>2.66</v>
       </c>
-      <c r="F53" s="10">
+      <c r="G53" s="10">
         <v>0.11</v>
       </c>
-      <c r="G53" s="10">
+      <c r="H53" s="10">
         <v>0.84</v>
       </c>
-      <c r="H53" s="10">
+      <c r="I53" s="10">
         <v>0.74</v>
       </c>
-      <c r="I53" s="10">
+      <c r="J53" s="10">
         <v>5</v>
       </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10">
+      <c r="K53" s="10"/>
+      <c r="L53" s="10">
         <v>0.53</v>
       </c>
-      <c r="L53" s="10">
+      <c r="M53" s="10">
         <v>15.99</v>
       </c>
-      <c r="M53" s="10">
+      <c r="N53" s="10">
         <v>10.96</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10">
+      <c r="O53" s="10"/>
+      <c r="P53" s="10">
         <v>0.23</v>
       </c>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="10">
+      <c r="Q53" s="10"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="10">
         <f t="shared" si="0"/>
         <v>98.339999999999989</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
@@ -6129,44 +6277,47 @@
       <c r="C54" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="10">
         <v>55.21</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10">
         <v>0.25</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10">
+      <c r="H54" s="10"/>
+      <c r="I54" s="10">
         <v>1.67</v>
       </c>
-      <c r="I54" s="10">
+      <c r="J54" s="10">
         <v>4.79</v>
       </c>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10">
+      <c r="K54" s="10"/>
+      <c r="L54" s="10">
         <v>0.77</v>
       </c>
-      <c r="L54" s="10">
+      <c r="M54" s="10">
         <v>25.25</v>
       </c>
-      <c r="M54" s="10">
+      <c r="N54" s="10">
         <v>10.06</v>
       </c>
-      <c r="N54" s="10">
+      <c r="O54" s="10">
         <v>0.2</v>
       </c>
-      <c r="O54" s="10">
+      <c r="P54" s="10">
         <v>0.43</v>
       </c>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="10">
+      <c r="Q54" s="10"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="10">
         <f t="shared" si="0"/>
         <v>98.63000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>64</v>
       </c>
@@ -6176,48 +6327,51 @@
       <c r="C55" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="10">
         <v>51.54</v>
       </c>
-      <c r="E55" s="10">
+      <c r="F55" s="10">
         <v>4.66</v>
       </c>
-      <c r="F55" s="10">
+      <c r="G55" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G55" s="10">
+      <c r="H55" s="10">
         <v>0.87</v>
       </c>
-      <c r="H55" s="10">
+      <c r="I55" s="10">
         <v>0.61</v>
       </c>
-      <c r="I55" s="10">
+      <c r="J55" s="10">
         <v>3.06</v>
       </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10">
+      <c r="K55" s="10"/>
+      <c r="L55" s="10">
         <v>0.65</v>
       </c>
-      <c r="L55" s="10">
+      <c r="M55" s="10">
         <v>25.4</v>
       </c>
-      <c r="M55" s="10">
+      <c r="N55" s="10">
         <v>9.23</v>
       </c>
-      <c r="N55" s="10">
+      <c r="O55" s="10">
         <v>0.1</v>
       </c>
-      <c r="O55" s="10">
+      <c r="P55" s="10">
         <v>0.85</v>
       </c>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="10">
+      <c r="Q55" s="10"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="10">
         <f t="shared" si="0"/>
         <v>97.259999999999991</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>65</v>
       </c>
@@ -6227,50 +6381,51 @@
       <c r="C56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="3"/>
+      <c r="E56" s="10">
         <v>53.33</v>
       </c>
-      <c r="E56" s="10">
+      <c r="F56" s="10">
         <v>0.8</v>
       </c>
-      <c r="F56" s="10">
+      <c r="G56" s="10">
         <v>0.32</v>
       </c>
-      <c r="G56" s="10">
+      <c r="H56" s="10">
         <v>2.82</v>
       </c>
-      <c r="H56" s="10">
+      <c r="I56" s="10">
         <v>1.54</v>
       </c>
-      <c r="I56" s="10">
+      <c r="J56" s="10">
         <v>13.65</v>
       </c>
-      <c r="J56" s="10">
+      <c r="K56" s="10">
         <v>1.03</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10">
+      <c r="L56" s="10"/>
+      <c r="M56" s="10">
         <v>15.71</v>
       </c>
-      <c r="M56" s="10">
+      <c r="N56" s="10">
         <v>7.31</v>
       </c>
-      <c r="N56" s="10">
+      <c r="O56" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O56" s="10">
+      <c r="P56" s="10">
         <v>0.25</v>
       </c>
-      <c r="P56" s="10">
+      <c r="Q56" s="10">
         <v>1.31</v>
       </c>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="10">
+      <c r="R56" s="12"/>
+      <c r="S56" s="10">
         <f t="shared" si="0"/>
         <v>99.169999999999987</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>87</v>
       </c>
@@ -6280,46 +6435,49 @@
       <c r="C57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="10">
         <v>28.79</v>
       </c>
-      <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="10">
+      <c r="G57" s="10"/>
+      <c r="H57" s="10">
         <v>4.58</v>
       </c>
-      <c r="H57" s="10">
+      <c r="I57" s="10">
         <v>1.47</v>
       </c>
-      <c r="I57" s="10">
+      <c r="J57" s="10">
         <v>5.38</v>
       </c>
-      <c r="J57" s="10">
+      <c r="K57" s="10">
         <v>2.74</v>
       </c>
-      <c r="K57" s="10">
+      <c r="L57" s="10">
         <v>0.7</v>
       </c>
-      <c r="L57" s="10">
+      <c r="M57" s="10">
         <v>34.18</v>
       </c>
-      <c r="M57" s="10">
+      <c r="N57" s="10">
         <v>6.1</v>
       </c>
-      <c r="N57" s="10">
+      <c r="O57" s="10">
         <v>11.1</v>
       </c>
-      <c r="O57" s="10">
+      <c r="P57" s="10">
         <v>0.46</v>
       </c>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="10">
+      <c r="Q57" s="10"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="10">
         <f t="shared" si="0"/>
         <v>95.499999999999986</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>88</v>
       </c>
@@ -6329,48 +6487,51 @@
       <c r="C58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="10">
         <v>54.61</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10">
+      <c r="F58" s="10"/>
+      <c r="G58" s="10">
         <v>0.3</v>
       </c>
-      <c r="G58" s="10">
+      <c r="H58" s="10">
         <v>2.08</v>
       </c>
-      <c r="H58" s="10">
+      <c r="I58" s="10">
         <v>1.2</v>
       </c>
-      <c r="I58" s="10">
+      <c r="J58" s="10">
         <v>6.5</v>
       </c>
-      <c r="J58" s="10">
+      <c r="K58" s="10">
         <v>1.27</v>
       </c>
-      <c r="K58" s="10">
+      <c r="L58" s="10">
         <v>0.45</v>
       </c>
-      <c r="L58" s="10">
+      <c r="M58" s="10">
         <v>23.02</v>
       </c>
-      <c r="M58" s="10">
+      <c r="N58" s="10">
         <v>4.1900000000000004</v>
       </c>
-      <c r="N58" s="10">
+      <c r="O58" s="10">
         <v>4.32</v>
       </c>
-      <c r="O58" s="10">
+      <c r="P58" s="10">
         <v>0.3</v>
       </c>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="10">
+      <c r="Q58" s="10"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="10">
         <f t="shared" si="0"/>
         <v>98.24</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>20</v>
       </c>
@@ -6380,46 +6541,49 @@
       <c r="C59" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="10">
         <v>17.98</v>
       </c>
-      <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="10">
+      <c r="G59" s="10"/>
+      <c r="H59" s="10">
         <v>3.19</v>
       </c>
-      <c r="H59" s="10">
+      <c r="I59" s="10">
         <v>0.47</v>
       </c>
-      <c r="I59" s="10">
+      <c r="J59" s="10">
         <v>1.87</v>
       </c>
-      <c r="J59" s="10">
+      <c r="K59" s="10">
         <v>0.33</v>
       </c>
-      <c r="K59" s="10">
+      <c r="L59" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L59" s="10">
+      <c r="M59" s="10">
         <v>44</v>
       </c>
-      <c r="M59" s="10">
+      <c r="N59" s="10">
         <v>14.2</v>
       </c>
-      <c r="N59" s="10">
+      <c r="O59" s="10">
         <v>6.34</v>
       </c>
-      <c r="O59" s="10">
+      <c r="P59" s="10">
         <v>0.66</v>
       </c>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="10">
+      <c r="Q59" s="10"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="10">
         <f t="shared" si="0"/>
         <v>90.17</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>89</v>
       </c>
@@ -6429,44 +6593,47 @@
       <c r="C60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="10">
         <v>45.02</v>
       </c>
-      <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="10">
+      <c r="G60" s="10"/>
+      <c r="H60" s="10">
         <v>3.12</v>
       </c>
-      <c r="H60" s="10">
+      <c r="I60" s="10">
         <v>0.54</v>
       </c>
-      <c r="I60" s="10">
+      <c r="J60" s="10">
         <v>4.16</v>
       </c>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10">
+      <c r="K60" s="10"/>
+      <c r="L60" s="10">
         <v>0.7</v>
       </c>
-      <c r="L60" s="10">
+      <c r="M60" s="10">
         <v>30.61</v>
       </c>
-      <c r="M60" s="10">
+      <c r="N60" s="10">
         <v>6.22</v>
       </c>
-      <c r="N60" s="10">
+      <c r="O60" s="10">
         <v>6.34</v>
       </c>
-      <c r="O60" s="10">
+      <c r="P60" s="10">
         <v>0.23</v>
       </c>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="10">
+      <c r="Q60" s="10"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="10">
         <f t="shared" si="0"/>
         <v>96.940000000000012</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>90</v>
       </c>
@@ -6476,48 +6643,51 @@
       <c r="C61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="10">
         <v>24.61</v>
       </c>
-      <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="10">
+      <c r="G61" s="10"/>
+      <c r="H61" s="10">
         <v>3.58</v>
       </c>
-      <c r="H61" s="10">
+      <c r="I61" s="10">
         <v>1.19</v>
       </c>
-      <c r="I61" s="10">
+      <c r="J61" s="10">
         <v>5.25</v>
       </c>
-      <c r="J61" s="10">
+      <c r="K61" s="10">
         <v>1.19</v>
       </c>
-      <c r="K61" s="10">
+      <c r="L61" s="10">
         <v>1.37</v>
       </c>
-      <c r="L61" s="10">
+      <c r="M61" s="10">
         <v>40.24</v>
       </c>
-      <c r="M61" s="10">
+      <c r="N61" s="10">
         <v>8.94</v>
       </c>
-      <c r="N61" s="10">
+      <c r="O61" s="10">
         <v>8.1</v>
       </c>
-      <c r="O61" s="10">
+      <c r="P61" s="10">
         <v>0.39</v>
       </c>
-      <c r="P61" s="10">
+      <c r="Q61" s="10">
         <v>0.47</v>
       </c>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="10">
+      <c r="R61" s="12"/>
+      <c r="S61" s="10">
         <f t="shared" si="0"/>
         <v>95.329999999999984</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>91</v>
       </c>
@@ -6527,42 +6697,45 @@
       <c r="C62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="10">
         <v>21.35</v>
       </c>
-      <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="10">
+      <c r="G62" s="10"/>
+      <c r="H62" s="10">
         <v>5.13</v>
       </c>
-      <c r="H62" s="10">
+      <c r="I62" s="10">
         <v>1.45</v>
       </c>
-      <c r="I62" s="10">
+      <c r="J62" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J62" s="10">
+      <c r="K62" s="10">
         <v>0.42</v>
       </c>
-      <c r="K62" s="10">
+      <c r="L62" s="10">
         <v>0.75</v>
       </c>
-      <c r="L62" s="10">
+      <c r="M62" s="10">
         <v>51.34</v>
       </c>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10">
+      <c r="N62" s="10"/>
+      <c r="O62" s="10">
         <v>8.75</v>
       </c>
-      <c r="O62" s="10"/>
       <c r="P62" s="10"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="10">
+      <c r="Q62" s="10"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="10">
         <f t="shared" si="0"/>
         <v>91.7</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>79</v>
       </c>
@@ -6572,48 +6745,51 @@
       <c r="C63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="10">
         <v>25.74</v>
       </c>
-      <c r="E63" s="10">
+      <c r="F63" s="10">
         <v>1.22</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10">
+      <c r="G63" s="10"/>
+      <c r="H63" s="10">
         <v>2.27</v>
       </c>
-      <c r="H63" s="10">
+      <c r="I63" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I63" s="10">
+      <c r="J63" s="10">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J63" s="10">
+      <c r="K63" s="10">
         <v>0.23</v>
       </c>
-      <c r="K63" s="10">
+      <c r="L63" s="10">
         <v>0.7</v>
       </c>
-      <c r="L63" s="10">
+      <c r="M63" s="10">
         <v>47.42</v>
       </c>
-      <c r="M63" s="10">
+      <c r="N63" s="10">
         <v>8.64</v>
       </c>
-      <c r="N63" s="10">
+      <c r="O63" s="10">
         <v>5.71</v>
       </c>
-      <c r="O63" s="10">
+      <c r="P63" s="10">
         <v>0.44</v>
       </c>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="10">
+      <c r="Q63" s="10"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="10">
         <f t="shared" si="0"/>
         <v>94.079999999999984</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>101</v>
       </c>
@@ -6623,46 +6799,49 @@
       <c r="C64" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="10">
         <v>63.66</v>
       </c>
-      <c r="E64" s="10">
+      <c r="F64" s="10">
         <v>3.04</v>
       </c>
-      <c r="F64" s="10">
+      <c r="G64" s="10">
         <v>0.11</v>
       </c>
-      <c r="G64" s="10">
+      <c r="H64" s="10">
         <v>0.78</v>
       </c>
-      <c r="H64" s="10">
+      <c r="I64" s="10">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I64" s="10">
+      <c r="J64" s="10">
         <v>6.06</v>
       </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10">
+      <c r="K64" s="10"/>
+      <c r="L64" s="10">
         <v>0.54</v>
       </c>
-      <c r="L64" s="10">
+      <c r="M64" s="10">
         <v>13.66</v>
       </c>
-      <c r="M64" s="10">
+      <c r="N64" s="10">
         <v>8.99</v>
       </c>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10">
+      <c r="O64" s="10"/>
+      <c r="P64" s="10">
         <v>0.27</v>
       </c>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="10">
+      <c r="Q64" s="10"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="10">
         <f t="shared" si="0"/>
         <v>98.25</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>80</v>
       </c>
@@ -6672,46 +6851,49 @@
       <c r="C65" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="10">
         <v>22.28</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10">
         <v>0.32</v>
       </c>
-      <c r="G65" s="10">
+      <c r="H65" s="10">
         <v>3.19</v>
       </c>
-      <c r="H65" s="10">
+      <c r="I65" s="10">
         <v>1.28</v>
       </c>
-      <c r="I65" s="10">
+      <c r="J65" s="10">
         <v>4.1500000000000004</v>
       </c>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10">
+      <c r="K65" s="10"/>
+      <c r="L65" s="10">
         <v>0.83</v>
       </c>
-      <c r="L65" s="10">
+      <c r="M65" s="10">
         <v>55.46</v>
       </c>
-      <c r="M65" s="10">
+      <c r="N65" s="10">
         <v>7.04</v>
       </c>
-      <c r="N65" s="10">
+      <c r="O65" s="10">
         <v>4.24</v>
       </c>
-      <c r="O65" s="10">
+      <c r="P65" s="10">
         <v>0.88</v>
       </c>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="10">
+      <c r="Q65" s="10"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="10">
         <f t="shared" si="0"/>
         <v>99.67</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>146</v>
       </c>
@@ -6721,40 +6903,43 @@
       <c r="C66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="10">
         <v>17.11</v>
       </c>
-      <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="10">
+      <c r="H66" s="10"/>
+      <c r="I66" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I66" s="10">
+      <c r="J66" s="10">
         <v>3.65</v>
       </c>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10">
+      <c r="K66" s="10"/>
+      <c r="L66" s="10">
         <v>1.34</v>
       </c>
-      <c r="L66" s="10">
+      <c r="M66" s="10">
         <v>58.46</v>
       </c>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10">
+      <c r="N66" s="10"/>
+      <c r="O66" s="10">
         <v>14.13</v>
       </c>
-      <c r="O66" s="10">
+      <c r="P66" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="10">
+      <c r="Q66" s="10"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="10">
         <f t="shared" si="0"/>
         <v>96.92</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>81</v>
       </c>
@@ -6764,42 +6949,45 @@
       <c r="C67" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="10">
         <v>49.01</v>
       </c>
-      <c r="E67" s="10">
+      <c r="F67" s="10">
         <v>2.71</v>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10">
+      <c r="G67" s="10"/>
+      <c r="H67" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10">
+      <c r="I67" s="10"/>
+      <c r="J67" s="10">
         <v>1.45</v>
       </c>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10">
+      <c r="K67" s="10"/>
+      <c r="L67" s="10">
         <v>0.86</v>
       </c>
-      <c r="L67" s="10">
+      <c r="M67" s="10">
         <v>32.92</v>
       </c>
-      <c r="M67" s="10">
+      <c r="N67" s="10">
         <v>7.95</v>
       </c>
-      <c r="N67" s="10">
+      <c r="O67" s="10">
         <v>0.35</v>
       </c>
-      <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="10">
+      <c r="Q67" s="10"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="10">
         <f t="shared" si="0"/>
         <v>96.38000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>72</v>
       </c>
@@ -6809,40 +6997,43 @@
       <c r="C68" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="10">
         <v>29.15</v>
       </c>
-      <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="10">
+      <c r="G68" s="10"/>
+      <c r="H68" s="10">
         <v>1.21</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10">
+      <c r="I68" s="10"/>
+      <c r="J68" s="10">
         <v>1.85</v>
       </c>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10">
+      <c r="K68" s="10"/>
+      <c r="L68" s="10">
         <v>0.79</v>
       </c>
-      <c r="L68" s="10">
+      <c r="M68" s="10">
         <v>41.25</v>
       </c>
-      <c r="M68" s="10">
+      <c r="N68" s="10">
         <v>15.45</v>
       </c>
-      <c r="N68" s="10">
+      <c r="O68" s="10">
         <v>2.54</v>
       </c>
-      <c r="O68" s="10"/>
       <c r="P68" s="10"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="10">
-        <f t="shared" ref="R68:R70" si="1">SUM(D68:Q68)</f>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="10">
+        <f t="shared" ref="S68:S70" si="1">SUM(E68:R68)</f>
         <v>92.240000000000009</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>73</v>
       </c>
@@ -6852,38 +7043,41 @@
       <c r="C69" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="10">
         <v>25.42</v>
       </c>
-      <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="10">
+      <c r="G69" s="10"/>
+      <c r="H69" s="10">
         <v>1.31</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10">
+      <c r="I69" s="10"/>
+      <c r="J69" s="10">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10">
+      <c r="K69" s="10"/>
+      <c r="L69" s="10">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L69" s="10">
+      <c r="M69" s="10">
         <v>45.1</v>
       </c>
-      <c r="M69" s="10">
+      <c r="N69" s="10">
         <v>17.3</v>
       </c>
-      <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="10">
+      <c r="Q69" s="10"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="10">
         <f t="shared" si="1"/>
         <v>92.47</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>74</v>
       </c>
@@ -6893,50 +7087,51 @@
       <c r="C70" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="4"/>
+      <c r="E70" s="10">
         <v>30.39</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10">
+      <c r="F70" s="10"/>
+      <c r="G70" s="10">
         <v>0.34</v>
       </c>
-      <c r="G70" s="10">
+      <c r="H70" s="10">
         <v>3.49</v>
       </c>
-      <c r="H70" s="10">
+      <c r="I70" s="10">
         <v>0.79</v>
       </c>
-      <c r="I70" s="10">
+      <c r="J70" s="10">
         <v>3.52</v>
       </c>
-      <c r="J70" s="10">
+      <c r="K70" s="10">
         <v>0.86</v>
       </c>
-      <c r="K70" s="10">
+      <c r="L70" s="10">
         <v>3.13</v>
       </c>
-      <c r="L70" s="10">
+      <c r="M70" s="10">
         <v>39.35</v>
       </c>
-      <c r="M70" s="10">
+      <c r="N70" s="10">
         <v>7.66</v>
       </c>
-      <c r="N70" s="10">
+      <c r="O70" s="10">
         <v>8.99</v>
       </c>
-      <c r="O70" s="10">
+      <c r="P70" s="10">
         <v>0.24</v>
       </c>
-      <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
-      <c r="R70" s="10">
+      <c r="R70" s="10"/>
+      <c r="S70" s="10">
         <f t="shared" si="1"/>
         <v>98.759999999999991</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q70" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q71">
+  <autoFilter ref="A1:R70" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R71">
     <sortCondition ref="A2:A71"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
